--- a/dossiers/Données finales/Stats Corpus - big.xlsx
+++ b/dossiers/Données finales/Stats Corpus - big.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\damie_000\Documents\GitHub\tal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\damie_000\Documents\GitHub\tal\dossiers\Données finales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3326B06-D0A1-457C-9ADD-B47702B8DB25}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F1B5C54-EB99-482D-A1CE-BBA54305062E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6495" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TYPE" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="151">
   <si>
     <t>VIDEO</t>
   </si>
@@ -486,6 +486,12 @@
   <si>
     <t>% Med</t>
   </si>
+  <si>
+    <t>Nb auteurs</t>
+  </si>
+  <si>
+    <t>Nb titres</t>
+  </si>
 </sst>
 </file>
 
@@ -545,7 +551,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -555,6 +561,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2535,7 +2542,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="C16" sqref="C16:C25"/>
     </sheetView>
   </sheetViews>
@@ -19734,445 +19741,720 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:B54"/>
+  <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>168</v>
-      </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>147</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>188711</v>
+      </c>
+      <c r="C2" s="3">
+        <f>B2/278806</f>
+        <v>0.6768541566537305</v>
+      </c>
+      <c r="D2" s="7">
+        <f>C2</f>
+        <v>0.6768541566537305</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>92</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>38732</v>
+      </c>
+      <c r="C3" s="3">
+        <f t="shared" ref="C3:C55" si="0">B3/278806</f>
+        <v>0.1389209701369411</v>
+      </c>
+      <c r="D3" s="7">
+        <f>D2+C3</f>
+        <v>0.81577512679067166</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>65</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>21412</v>
+      </c>
+      <c r="C4" s="3">
+        <f t="shared" si="0"/>
+        <v>7.6798921113605881E-2</v>
+      </c>
+      <c r="D4" s="7">
+        <f t="shared" ref="D4:D9" si="1">D3+C4</f>
+        <v>0.89257404790427752</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>62</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>12176</v>
+      </c>
+      <c r="C5" s="3">
+        <f t="shared" si="0"/>
+        <v>4.367194393234005E-2</v>
+      </c>
+      <c r="D5" s="7">
+        <f t="shared" si="1"/>
+        <v>0.93624599183661761</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>61</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>6724</v>
+      </c>
+      <c r="C6" s="3">
+        <f t="shared" si="0"/>
+        <v>2.4117128038851389E-2</v>
+      </c>
+      <c r="D6" s="7">
+        <f t="shared" si="1"/>
+        <v>0.96036311987546896</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3811</v>
+      </c>
+      <c r="C7" s="3">
+        <f t="shared" si="0"/>
+        <v>1.3669002819164581E-2</v>
+      </c>
+      <c r="D7" s="7">
+        <f t="shared" si="1"/>
+        <v>0.97403212269463357</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2344</v>
+      </c>
+      <c r="C8" s="3">
+        <f t="shared" si="0"/>
+        <v>8.4072796137816264E-3</v>
+      </c>
+      <c r="D8" s="7">
+        <f t="shared" si="1"/>
+        <v>0.9824394023084152</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1528</v>
+      </c>
+      <c r="C9" s="3">
+        <f t="shared" si="0"/>
+        <v>5.4805133318508214E-3</v>
+      </c>
+      <c r="D9" s="7">
+        <f t="shared" si="1"/>
+        <v>0.98791991564026604</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="B10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>920</v>
+      </c>
+      <c r="C10" s="3">
+        <f t="shared" si="0"/>
+        <v>3.2997855139415937E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="B11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>633</v>
+      </c>
+      <c r="C11" s="3">
+        <f t="shared" si="0"/>
+        <v>2.2703959025272055E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>442</v>
+      </c>
+      <c r="C12" s="3">
+        <f t="shared" si="0"/>
+        <v>1.5853317360458527E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>335</v>
+      </c>
+      <c r="C13" s="3">
+        <f t="shared" si="0"/>
+        <v>1.2015523338809065E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>225</v>
+      </c>
+      <c r="C14" s="3">
+        <f t="shared" si="0"/>
+        <v>8.0701276156180284E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>165</v>
+      </c>
+      <c r="C15" s="3">
+        <f t="shared" si="0"/>
+        <v>5.918093584786554E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>115</v>
+      </c>
+      <c r="C16" s="3">
+        <f t="shared" si="0"/>
+        <v>4.1247318924269921E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>86</v>
+      </c>
+      <c r="C17" s="3">
+        <f t="shared" si="0"/>
+        <v>3.0845821108584461E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>83</v>
+      </c>
+      <c r="C18" s="3">
+        <f t="shared" si="0"/>
+        <v>2.9769804093168729E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>53</v>
+      </c>
+      <c r="C19" s="3">
+        <f t="shared" si="0"/>
+        <v>1.9009633939011356E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>52</v>
+      </c>
+      <c r="C20" s="3">
+        <f t="shared" si="0"/>
+        <v>1.8650961600539444E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="B21">
         <v>49</v>
       </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>47</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>45</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>44</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>40</v>
-      </c>
-      <c r="B16">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>38</v>
-      </c>
-      <c r="B17">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>37</v>
-      </c>
-      <c r="B18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>36</v>
-      </c>
-      <c r="B19">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>35</v>
-      </c>
-      <c r="B20">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>34</v>
-      </c>
-      <c r="B21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21" s="3">
+        <f t="shared" si="0"/>
+        <v>1.7574944585123706E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="C22" s="3">
+        <f t="shared" si="0"/>
+        <v>1.0042825477213546E-4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="C23" s="3">
+        <f t="shared" si="0"/>
+        <v>8.6081361233258968E-5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B24">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="C24" s="3">
+        <f t="shared" si="0"/>
+        <v>7.5321191079101603E-5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B25">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="C25" s="3">
+        <f t="shared" si="0"/>
+        <v>7.5321191079101603E-5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="C26" s="3">
+        <f t="shared" si="0"/>
+        <v>6.09742975402251E-5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>15</v>
+      </c>
+      <c r="C27" s="3">
+        <f t="shared" si="0"/>
+        <v>5.3800850770786855E-5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
         <v>28</v>
       </c>
-      <c r="B27">
+      <c r="B28">
         <v>10</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28" s="3">
+        <f t="shared" si="0"/>
+        <v>3.5867233847191239E-5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>26</v>
       </c>
       <c r="B29">
         <v>9</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29" s="3">
+        <f t="shared" si="0"/>
+        <v>3.2280510462472113E-5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B30">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="C30" s="3">
+        <f t="shared" si="0"/>
+        <v>2.5107063693033864E-5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="C31" s="3">
+        <f t="shared" si="0"/>
+        <v>2.1520340308314742E-5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="B32">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="C32" s="3">
+        <f t="shared" si="0"/>
+        <v>1.7933616923595619E-5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="C33" s="3">
+        <f t="shared" si="0"/>
+        <v>1.7933616923595619E-5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B34">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="C34" s="3">
+        <f t="shared" si="0"/>
+        <v>1.7933616923595619E-5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="C35" s="3">
+        <f t="shared" si="0"/>
+        <v>1.4346893538876495E-5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="B36">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="C36" s="3">
+        <f t="shared" si="0"/>
+        <v>1.4346893538876495E-5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B37">
+        <v>4</v>
+      </c>
+      <c r="C37" s="3">
+        <f t="shared" si="0"/>
+        <v>1.4346893538876495E-5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>31</v>
+      </c>
+      <c r="B38">
+        <v>4</v>
+      </c>
+      <c r="C38" s="3">
+        <f t="shared" si="0"/>
+        <v>1.4346893538876495E-5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>58</v>
+      </c>
+      <c r="B39">
+        <v>3</v>
+      </c>
+      <c r="C39" s="3">
+        <f t="shared" si="0"/>
+        <v>1.0760170154157371E-5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>37</v>
+      </c>
+      <c r="B40">
+        <v>2</v>
+      </c>
+      <c r="C40" s="3">
+        <f t="shared" si="0"/>
+        <v>7.1734467694382476E-6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>33</v>
+      </c>
+      <c r="B41">
+        <v>2</v>
+      </c>
+      <c r="C41" s="3">
+        <f t="shared" si="0"/>
+        <v>7.1734467694382476E-6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>168</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42" s="3">
+        <f t="shared" si="0"/>
+        <v>3.5867233847191238E-6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>147</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43" s="3">
+        <f t="shared" si="0"/>
+        <v>3.5867233847191238E-6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>92</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44" s="3">
+        <f t="shared" si="0"/>
+        <v>3.5867233847191238E-6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>65</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45" s="3">
+        <f t="shared" si="0"/>
+        <v>3.5867233847191238E-6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>62</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46" s="3">
+        <f t="shared" si="0"/>
+        <v>3.5867233847191238E-6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>61</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47" s="3">
+        <f t="shared" si="0"/>
+        <v>3.5867233847191238E-6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>60</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48" s="3">
+        <f t="shared" si="0"/>
+        <v>3.5867233847191238E-6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>55</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49" s="3">
+        <f t="shared" si="0"/>
+        <v>3.5867233847191238E-6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>51</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50" s="3">
+        <f t="shared" si="0"/>
+        <v>3.5867233847191238E-6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51" s="3">
+        <f t="shared" si="0"/>
+        <v>3.5867233847191238E-6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52">
         <v>49</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>17</v>
-      </c>
-      <c r="B38">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>16</v>
-      </c>
-      <c r="B39">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>15</v>
-      </c>
-      <c r="B40">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>14</v>
-      </c>
-      <c r="B41">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>13</v>
-      </c>
-      <c r="B42">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>12</v>
-      </c>
-      <c r="B43">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>11</v>
-      </c>
-      <c r="B44">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>10</v>
-      </c>
-      <c r="B45">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>9</v>
-      </c>
-      <c r="B46">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>8</v>
-      </c>
-      <c r="B47">
-        <v>1528</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>7</v>
-      </c>
-      <c r="B48">
-        <v>2344</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>6</v>
-      </c>
-      <c r="B49">
-        <v>3811</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>5</v>
-      </c>
-      <c r="B50">
-        <v>6724</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>4</v>
-      </c>
-      <c r="B51">
-        <v>12176</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>3</v>
-      </c>
       <c r="B52">
-        <v>21412</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="C52" s="3">
+        <f t="shared" si="0"/>
+        <v>3.5867233847191238E-6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="B53">
-        <v>38732</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="C53" s="3">
+        <f t="shared" si="0"/>
+        <v>3.5867233847191238E-6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="B54">
-        <v>188711</v>
+        <v>1</v>
+      </c>
+      <c r="C54" s="3">
+        <f t="shared" si="0"/>
+        <v>3.5867233847191238E-6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>44</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55" s="3">
+        <f t="shared" si="0"/>
+        <v>3.5867233847191238E-6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B56">
+        <f>SUM(B2:B55)</f>
+        <v>278806</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B57">
+        <v>278806</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:B55">
+    <sortCondition descending="1" ref="B2"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
